--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C039444B-F45B-6F47-B253-F737AEF53334}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kuesioner" sheetId="1" r:id="rId1"/>
     <sheet name="Hasil Konjoin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">Bagian 1: </t>
   </si>
   <si>
-    <t>Jawab pertanyaan-pertanyaan berikut dengan memberi tanda silang (X) pada jawaban yang paling sesuai.</t>
-  </si>
-  <si>
     <t>Ukuran Cup</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Nilai</t>
   </si>
   <si>
-    <t>Berikan penilaian anda untuk</t>
-  </si>
-  <si>
     <t>Bagian 3:</t>
   </si>
   <si>
@@ -125,6 +119,30 @@
   </si>
   <si>
     <t>milk tea</t>
+  </si>
+  <si>
+    <t>Jawaban</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
+    <t>ID Responden:</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>Berikan penilaian anda untuk masing-masing objek dalam tabel berikut. Nilai 1 = Sangat Tidak Suka, dan 5 = Sangat Suka. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
+  </si>
+  <si>
+    <t>Jawab pertanyaan berikut dengan memberi tanda silang (X) pada jawaban yang paling sesuai.</t>
+  </si>
+  <si>
+    <t>Berikan penilaian anda mengenai seberapa miripnya objek dalam kolom 1 dan objek dalam kolom 2. Nilai 1 = Sangat Tidak Mirip, dan 5 = Sangat Mirip. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -143,15 +161,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -159,17 +183,294 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,341 +785,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.703125" customWidth="1"/>
-    <col min="3" max="3" width="10.4921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.52734375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.10546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="9" width="2.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6">
+        <v>11000</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="6">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="I24" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D30" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E11:I11"/>
+  <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E12:I12"/>
     <mergeCell ref="E23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -826,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A6B5C4-75A8-B848-953D-4F44E944A44A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{05FABA76-B122-5455-BE6D-2110E4C459B7}">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{05FABA76-B122-5455-BE6D-2110E4C459B7}">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -837,12 +1346,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>5000</v>
@@ -853,7 +1362,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>7000</v>
@@ -864,7 +1373,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>7000</v>
@@ -875,7 +1384,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>9000</v>
@@ -886,7 +1395,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>9000</v>
@@ -897,7 +1406,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>11000</v>
@@ -908,7 +1417,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -916,7 +1425,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>-2</v>
@@ -924,7 +1433,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>2</v>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C039444B-F45B-6F47-B253-F737AEF53334}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{068F1D19-FEB6-B943-98AF-50135D2A0DAC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -136,13 +136,43 @@
     <t>A-</t>
   </si>
   <si>
-    <t>Berikan penilaian anda untuk masing-masing objek dalam tabel berikut. Nilai 1 = Sangat Tidak Suka, dan 5 = Sangat Suka. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
-  </si>
-  <si>
     <t>Jawab pertanyaan berikut dengan memberi tanda silang (X) pada jawaban yang paling sesuai.</t>
   </si>
   <si>
-    <t>Berikan penilaian anda mengenai seberapa miripnya objek dalam kolom 1 dan objek dalam kolom 2. Nilai 1 = Sangat Tidak Mirip, dan 5 = Sangat Mirip. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
+    <t>Mungkin akan membeli</t>
+  </si>
+  <si>
+    <t>Mungkin tidak akan membeli</t>
+  </si>
+  <si>
+    <t>Pasti tidak akan membeli</t>
+  </si>
+  <si>
+    <t>Pilihan</t>
+  </si>
+  <si>
+    <t>Bagian 4:</t>
+  </si>
+  <si>
+    <t>Isikan tanda silang (X) pada jawaban yang menurut anda paling sesuai.</t>
+  </si>
+  <si>
+    <t>Lanjutkan pengisian kuesioner pada halaman selanjutnya.</t>
+  </si>
+  <si>
+    <t>Berikan penilaian Anda untuk masing-masing objek dalam tabel berikut. Masing-masing objek dalam tabel tersebut merepresentasikan sebuah minuman teh. Nilai 1 = Sangat Tidak Suka, dan 5 = Sangat Suka. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
+  </si>
+  <si>
+    <t>Berikan penilaian Anda mengenai seberapa miripnya objek dalam kolom 1 dan objek dalam kolom 2. Nilai 1 = Sangat Tidak Mirip, dan 5 = Sangat Mirip. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
+  </si>
+  <si>
+    <t>Jika sebuah stand Teh Poci buka di dekat tempat kerja saya, saya:</t>
+  </si>
+  <si>
+    <t>Kuesioner ini telah selesai. Terimakasih banyak atas bantuan Anda dalam mengisi kuesioner ini; Masukan Anda sangat kami hargai.</t>
+  </si>
+  <si>
+    <t>Saran bagi peneliti (opsional):</t>
   </si>
 </sst>
 </file>
@@ -356,119 +386,140 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,531 +836,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.10546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.46875" customWidth="1"/>
+    <col min="4" max="4" width="14.52734375" customWidth="1"/>
     <col min="5" max="9" width="2.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>10</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>11</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>12</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>13</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>14</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27">
+        <v>16</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6">
-        <v>11000</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
-        <v>9000</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="6">
-        <v>9000</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>9</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="6">
-        <v>11000</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3</v>
-      </c>
-      <c r="H24" s="4">
-        <v>4</v>
-      </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
-        <v>10</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
-        <v>11</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
-        <v>12</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>13</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>14</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
-        <v>15</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="25">
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B11:I11"/>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{068F1D19-FEB6-B943-98AF-50135D2A0DAC}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FA053C0A-6255-8C4F-9AE3-FA2AE3A2D2CC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Isikan tanda silang (X) pada jawaban yang menurut anda paling sesuai.</t>
   </si>
   <si>
-    <t>Lanjutkan pengisian kuesioner pada halaman selanjutnya.</t>
-  </si>
-  <si>
     <t>Berikan penilaian Anda untuk masing-masing objek dalam tabel berikut. Masing-masing objek dalam tabel tersebut merepresentasikan sebuah minuman teh. Nilai 1 = Sangat Tidak Suka, dan 5 = Sangat Suka. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Saran bagi peneliti (opsional):</t>
+  </si>
+  <si>
+    <t>Lanjutkan pengisian kuesioner pada halaman berikutnya.</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,66 +452,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,6 +490,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,40 +861,40 @@
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="5"/>
@@ -897,7 +903,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -912,7 +918,7 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -925,7 +931,7 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
@@ -938,7 +944,7 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
@@ -951,7 +957,7 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
@@ -964,7 +970,7 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -977,7 +983,7 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -993,43 +999,43 @@
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -1202,41 +1208,41 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
+      <c r="B22" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1339,11 +1345,11 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="23">
         <v>15</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1356,145 +1362,135 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="44"/>
+      <c r="A31" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27">
+      <c r="A33" s="29">
         <v>16</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="B33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="37"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
+      <c r="A39" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B11:I11"/>
@@ -1510,6 +1506,16 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FA053C0A-6255-8C4F-9AE3-FA2AE3A2D2CC}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{01B78FD3-0154-DE45-A5A3-5A1DE2B3EA89}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>Pekerjaan</t>
   </si>
   <si>
-    <t>ID Responden:</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Lanjutkan pengisian kuesioner pada halaman berikutnya.</t>
+  </si>
+  <si>
+    <t>ID Responden (diisi oleh peneliti):</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,7 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,23 +462,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,41 +515,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,56 +851,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="7"/>
@@ -918,7 +911,7 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -931,7 +924,7 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
@@ -944,7 +937,7 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
@@ -957,7 +950,7 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
@@ -970,7 +963,7 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -983,26 +976,26 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="42"/>
+      <c r="B11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -1011,31 +1004,31 @@
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="46"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -1208,41 +1201,41 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="B22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="47" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="46"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1263,8 +1256,8 @@
       <c r="A25" s="10">
         <v>10</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1280,8 +1273,8 @@
       <c r="A26" s="10">
         <v>11</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1297,8 +1290,8 @@
       <c r="A27" s="10">
         <v>12</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -1314,8 +1307,8 @@
       <c r="A28" s="10">
         <v>13</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -1331,25 +1324,25 @@
       <c r="A29" s="4">
         <v>14</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1362,136 +1355,146 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="A31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="39">
         <v>16</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="30"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="38"/>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="30"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="38"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="30"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B1:I1"/>
+  <mergeCells count="26">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B2:I2"/>
@@ -1506,16 +1509,7 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{01B78FD3-0154-DE45-A5A3-5A1DE2B3EA89}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D69C50D8-EEBF-3345-9B01-2033A1ECE3B5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>ID Responden (diisi oleh peneliti):</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -464,20 +467,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,35 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -851,43 +854,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="18"/>
       <c r="E3" s="19"/>
       <c r="F3" s="5"/>
@@ -896,7 +899,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="12" t="s">
         <v>32</v>
       </c>
@@ -911,7 +914,7 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -924,7 +927,7 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
@@ -963,7 +966,7 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -976,7 +979,7 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -992,43 +995,43 @@
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -1059,7 +1062,9 @@
         <v>7000</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1077,7 +1082,9 @@
       <c r="D15" s="2">
         <v>5000</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1100,7 +1107,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1116,7 +1125,9 @@
         <v>7000</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1135,7 +1146,9 @@
         <v>9000</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1154,7 +1167,9 @@
         <v>9000</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1173,7 +1188,9 @@
         <v>7000</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1191,7 +1208,9 @@
       <c r="D21" s="2">
         <v>11000</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1201,41 +1220,41 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1355,42 +1374,42 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
+      <c r="A33" s="30">
         <v>16</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -1398,11 +1417,11 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1413,11 +1432,11 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="38"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="1"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -1426,11 +1445,11 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="38"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="1"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -1439,11 +1458,11 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="1"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -1452,11 +1471,11 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="38"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="1"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
@@ -1465,17 +1484,17 @@
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1484,17 +1503,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B2:I2"/>
@@ -1506,10 +1529,6 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D69C50D8-EEBF-3345-9B01-2033A1ECE3B5}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CBD844B5-F5C0-A54A-83CC-0CAFC706986D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -121,21 +121,12 @@
     <t>milk tea</t>
   </si>
   <si>
-    <t>Jawaban</t>
-  </si>
-  <si>
     <t>Nomor</t>
   </si>
   <si>
-    <t>Pekerjaan</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
-    <t>Jawab pertanyaan berikut dengan memberi tanda silang (X) pada jawaban yang paling sesuai.</t>
-  </si>
-  <si>
     <t>Mungkin akan membeli</t>
   </si>
   <si>
@@ -151,21 +142,9 @@
     <t>Bagian 4:</t>
   </si>
   <si>
-    <t>Isikan tanda silang (X) pada jawaban yang menurut anda paling sesuai.</t>
-  </si>
-  <si>
     <t>Berikan penilaian Anda untuk masing-masing objek dalam tabel berikut. Masing-masing objek dalam tabel tersebut merepresentasikan sebuah minuman teh. Nilai 1 = Sangat Tidak Suka, dan 5 = Sangat Suka. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
   </si>
   <si>
-    <t>Berikan penilaian Anda mengenai seberapa miripnya objek dalam kolom 1 dan objek dalam kolom 2. Nilai 1 = Sangat Tidak Mirip, dan 5 = Sangat Mirip. Isikan tanda silang (X) pada kolom yang bersesuaian.</t>
-  </si>
-  <si>
-    <t>Jika sebuah stand Teh Poci buka di dekat tempat kerja saya, saya:</t>
-  </si>
-  <si>
-    <t>Kuesioner ini telah selesai. Terimakasih banyak atas bantuan Anda dalam mengisi kuesioner ini; Masukan Anda sangat kami hargai.</t>
-  </si>
-  <si>
     <t>Saran bagi peneliti (opsional):</t>
   </si>
   <si>
@@ -175,7 +154,40 @@
     <t>ID Responden (diisi oleh peneliti):</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Bagian 5:</t>
+  </si>
+  <si>
+    <t>Mitra GO-JEK/Grab</t>
+  </si>
+  <si>
+    <t>Objek</t>
+  </si>
+  <si>
+    <t>Ketersediaan kartu (remi, uno, atau permainan lainnya)</t>
+  </si>
+  <si>
+    <t>Ketersediaan wifi</t>
+  </si>
+  <si>
+    <t>Ketersediaan colokan</t>
+  </si>
+  <si>
+    <t>Jawab pertanyaan berikut dengan memberi tanda silang (X) pada pilihan yang paling sesuai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berikan penilaian Anda mengenai seberapa miripnya objek dalam kolom 1 dan objek dalam kolom 2. Nilai 1 = Sangat Tidak Mirip, dan 5 = Sangat Mirip. Isikan tanda silang (X) pada kolom yang bersesuaian untuk setiap soal. </t>
+  </si>
+  <si>
+    <t>Isikan tanda silang (X) pada pilihan yang menurut Anda paling sesuai.</t>
+  </si>
+  <si>
+    <t>Bila sebuah stand Teh Poci buka di dekat tempat kerja saya, saya:</t>
+  </si>
+  <si>
+    <t>Kuesioner ini telah selesai. Terima kasih banyak atas bantuan Anda dalam mengisi kuesioner ini; Masukan Anda sangat kami hargai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berikan penilaian Anda mengenai seberapa pentingnya dalam kolom 1  terhadap keputusan Anda untuk membeli minuman di suatu stand / tempat. Nilai 1 = Sangat Tidak Penting, dan 5 = Sangat Penting.  Isikan tanda silang (X) pada kolom yang bersesuaian untuk setiap soal.  </t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -299,15 +311,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -389,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,126 +406,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,200 +843,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.47265625" customWidth="1"/>
+    <col min="2" max="2" width="17.62109375" customWidth="1"/>
     <col min="3" max="3" width="15.46875" customWidth="1"/>
     <col min="4" max="4" width="14.52734375" customWidth="1"/>
     <col min="5" max="9" width="2.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="46"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -1062,9 +1067,7 @@
         <v>7000</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1082,9 +1085,7 @@
       <c r="D15" s="2">
         <v>5000</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1107,9 +1108,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1125,9 +1124,7 @@
         <v>7000</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1146,9 +1143,7 @@
         <v>9000</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1167,9 +1162,7 @@
         <v>9000</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1188,9 +1181,7 @@
         <v>7000</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1208,9 +1199,7 @@
       <c r="D21" s="2">
         <v>11000</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1220,41 +1209,41 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="B22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="47" t="s">
+      <c r="A23" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="46"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1272,14 +1261,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="6">
         <v>10</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="1"/>
@@ -1289,14 +1278,14 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="6">
         <v>11</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="1"/>
@@ -1306,14 +1295,14 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="6">
         <v>12</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="1"/>
@@ -1323,14 +1312,14 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="6">
         <v>13</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="1"/>
@@ -1343,25 +1332,25 @@
       <c r="A29" s="4">
         <v>14</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="13">
         <v>15</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1374,161 +1363,272 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>2</v>
+      </c>
+      <c r="G34" s="17">
+        <v>3</v>
+      </c>
+      <c r="H34" s="17">
+        <v>4</v>
+      </c>
+      <c r="I34" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
+        <v>16</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
-        <v>16</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="39">
+        <v>17</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="39">
+        <v>18</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="40">
+        <v>19</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="40"/>
+      <c r="B40" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="40"/>
+      <c r="B42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A33:A38"/>
+  <mergeCells count="52">
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B33:D34"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D69C50D8-EEBF-3345-9B01-2033A1ECE3B5}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{48A5BD93-2AF5-0946-BEF8-3020E7CDCA88}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>ID Responden (diisi oleh peneliti):</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -467,14 +464,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -491,15 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,9 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFACB234-1E55-AE4C-A7AF-40DC2A2B7AB9}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,43 +851,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="18"/>
       <c r="E3" s="19"/>
       <c r="F3" s="5"/>
@@ -995,16 +992,16 @@
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
@@ -1016,7 +1013,7 @@
       <c r="C12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -1031,7 +1028,7 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="46"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -1062,9 +1059,7 @@
         <v>7000</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1082,9 +1077,7 @@
       <c r="D15" s="2">
         <v>5000</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1107,9 +1100,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1125,9 +1116,7 @@
         <v>7000</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1146,9 +1135,7 @@
         <v>9000</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1167,9 +1154,7 @@
         <v>9000</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1188,9 +1173,7 @@
         <v>7000</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1208,9 +1191,7 @@
       <c r="D21" s="2">
         <v>11000</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1220,26 +1201,26 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -1251,10 +1232,10 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="16"/>
       <c r="C24" s="47"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1374,42 +1355,42 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>16</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -1484,17 +1465,17 @@
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1503,6 +1484,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E23:I23"/>
@@ -1519,16 +1510,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A31:I31"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1E5BBA48-9485-4B24-A149-AFB528B94407/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CBD844B5-F5C0-A54A-83CC-0CAFC706986D}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{2B953FC7-FE5E-2C4E-949E-DFE1D8DC5356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DF1B2163-36C7-5142-8F6E-1ABB813BBB95}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Pekerjaan saya adalah:</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Bagian 3:</t>
   </si>
   <si>
-    <t>Minuman 1</t>
-  </si>
-  <si>
-    <t>Minuman 2</t>
-  </si>
-  <si>
     <t>Teh Kotak</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Saran bagi peneliti (opsional):</t>
   </si>
   <si>
-    <t>Lanjutkan pengisian kuesioner pada halaman berikutnya.</t>
-  </si>
-  <si>
     <t>ID Responden (diisi oleh peneliti):</t>
   </si>
   <si>
@@ -187,7 +178,19 @@
     <t>Kuesioner ini telah selesai. Terima kasih banyak atas bantuan Anda dalam mengisi kuesioner ini; Masukan Anda sangat kami hargai.</t>
   </si>
   <si>
-    <t xml:space="preserve">Berikan penilaian Anda mengenai seberapa pentingnya dalam kolom 1  terhadap keputusan Anda untuk membeli minuman di suatu stand / tempat. Nilai 1 = Sangat Tidak Penting, dan 5 = Sangat Penting.  Isikan tanda silang (X) pada kolom yang bersesuaian untuk setiap soal.  </t>
+    <t>Pasti akan membeli</t>
+  </si>
+  <si>
+    <t>Kolom 1</t>
+  </si>
+  <si>
+    <t>Kolom 2</t>
+  </si>
+  <si>
+    <t>Lanjutkan pengisian kuesioner pada halaman berikutnya. -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berikan penilaian Anda mengenai seberapa berpengaruhnya objek berikut terhadap keputusan Anda untuk membeli minuman di suatu stand / tempat. Nilai 1 = Sangat Tidak Penting, dan 5 = Sangat Penting.  Isikan tanda silang (X) pada kolom yang bersesuaian untuk setiap soal.  </t>
   </si>
 </sst>
 </file>
@@ -448,76 +451,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,98 +849,98 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{0193CB78-E1EE-5222-BA94-1FEE762106F8}">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B38" sqref="B38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.47265625" customWidth="1"/>
-    <col min="2" max="2" width="17.62109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44921875" customWidth="1"/>
+    <col min="2" max="2" width="15.06640625" customWidth="1"/>
     <col min="3" max="3" width="15.46875" customWidth="1"/>
     <col min="4" max="4" width="14.52734375" customWidth="1"/>
     <col min="5" max="9" width="2.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="44"/>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -945,98 +948,98 @@
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="43"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="43"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="B11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -1205,45 +1208,45 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
+      <c r="B22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>30</v>
+      <c r="A23" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -1266,10 +1269,10 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1283,10 +1286,10 @@
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1300,10 +1303,10 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1317,10 +1320,10 @@
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1334,10 +1337,10 @@
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1351,10 +1354,10 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1362,56 +1365,56 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="35" t="s">
+      <c r="A33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="18">
         <v>1</v>
       </c>
@@ -1429,14 +1432,14 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="39">
+      <c r="A35" s="19">
         <v>16</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="18"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -1444,14 +1447,14 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="39">
+      <c r="A36" s="19">
         <v>17</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="18"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -1459,14 +1462,14 @@
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="39">
+      <c r="A37" s="19">
         <v>18</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -1475,104 +1478,104 @@
     </row>
     <row r="38" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
+        <v>19</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-    </row>
-    <row r="39" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
-        <v>19</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
+      <c r="B42" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
+      <c r="A44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1607,11 +1610,17 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="B33:D34"/>
     <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="A3:A10"/>
@@ -1621,14 +1630,8 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1650,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1724,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>-2</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>2</v>
